--- a/Project 1.xlsx
+++ b/Project 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Luma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDEAF84E-BD0E-4E9C-BA90-4AFC97AC4E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFEAA8-9E25-4AD4-87DD-AFA6BB6BF9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6263023-466D-4076-80CA-6329CE90D4B3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -94,15 +94,6 @@
   </si>
   <si>
     <t>Result (based on username and password)</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>ramesh.12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -473,7 +464,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,27 +553,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -596,13 +572,8 @@
     <hyperlink ref="E3" r:id="rId8" xr:uid="{7221725F-99A3-4416-A94B-7EAF5E0AE2C7}"/>
     <hyperlink ref="F3" r:id="rId9" xr:uid="{715028E8-FBE5-4C35-88DE-FEDB05214419}"/>
     <hyperlink ref="G3" r:id="rId10" xr:uid="{7EC602C1-74AF-4932-A3D0-DE52AA63C235}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{D5896B3E-7057-42A0-BCDB-6EA819A30873}"/>
-    <hyperlink ref="D4" r:id="rId12" xr:uid="{F2C9E021-0EEB-4BA7-810F-49DA50DBC1A9}"/>
-    <hyperlink ref="E4" r:id="rId13" xr:uid="{FF951CBC-8217-4681-B70A-AB26F22F20C1}"/>
-    <hyperlink ref="F4" r:id="rId14" xr:uid="{FEF5AAAD-BB5B-4A4E-8BB4-51CF3AC5FD62}"/>
-    <hyperlink ref="G4" r:id="rId15" xr:uid="{EC0DDE32-E72F-4617-924E-92A9759E6ADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Project 1.xlsx
+++ b/Project 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E46E3DF2-0672-4E39-816E-C18424DF74AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFEAA8-9E25-4AD4-87DD-AFA6BB6BF9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6263023-466D-4076-80CA-6329CE90D4B3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -94,15 +94,6 @@
   </si>
   <si>
     <t>Result (based on username and password)</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>ramesh.12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -473,7 +464,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,27 +553,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -596,13 +572,8 @@
     <hyperlink ref="E3" r:id="rId8" xr:uid="{7221725F-99A3-4416-A94B-7EAF5E0AE2C7}"/>
     <hyperlink ref="F3" r:id="rId9" xr:uid="{715028E8-FBE5-4C35-88DE-FEDB05214419}"/>
     <hyperlink ref="G3" r:id="rId10" xr:uid="{7EC602C1-74AF-4932-A3D0-DE52AA63C235}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{D5896B3E-7057-42A0-BCDB-6EA819A30873}"/>
-    <hyperlink ref="D4" r:id="rId12" xr:uid="{F2C9E021-0EEB-4BA7-810F-49DA50DBC1A9}"/>
-    <hyperlink ref="E4" r:id="rId13" xr:uid="{FF951CBC-8217-4681-B70A-AB26F22F20C1}"/>
-    <hyperlink ref="F4" r:id="rId14" xr:uid="{FEF5AAAD-BB5B-4A4E-8BB4-51CF3AC5FD62}"/>
-    <hyperlink ref="G4" r:id="rId15" xr:uid="{EC0DDE32-E72F-4617-924E-92A9759E6ADD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId11"/>
 </worksheet>
 </file>